--- a/template_examples/nanostring_template.xlsx
+++ b/template_examples/nanostring_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="olink" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="nanostring" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="raw data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Legend" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Data Dictionary" sheetId="4" state="visible" r:id="rId5"/>
@@ -601,11 +601,11 @@
   </sheetPr>
   <dimension ref="A1:C2009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10735,11 +10735,11 @@
   </sheetPr>
   <dimension ref="A1:D2005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -20843,7 +20843,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -21034,7 +21034,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>

--- a/template_examples/nanostring_template.xlsx
+++ b/template_examples/nanostring_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nanostring" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,7 +80,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .csv format</t>
         </r>
       </text>
@@ -95,7 +95,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .csv format</t>
         </r>
       </text>
@@ -124,7 +124,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .rcc format</t>
         </r>
       </text>
@@ -191,7 +191,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -205,7 +205,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .rcc format</t>
         </r>
       </text>
@@ -215,12 +215,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="52">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
   <si>
-    <t xml:space="preserve">Metadata file for nanostring</t>
+    <t xml:space="preserve">Nanostring assay template</t>
   </si>
   <si>
     <t xml:space="preserve">#preamble</t>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">LEGEND</t>
   </si>
   <si>
-    <t xml:space="preserve">Legend for tab 'olink'</t>
+    <t xml:space="preserve">Legend for tab 'nanostring'</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
@@ -334,10 +334,10 @@
     <t xml:space="preserve">A unique ID that separates the different batches of Nanostring.</t>
   </si>
   <si>
-    <t xml:space="preserve">Path to a file on a user's computer.</t>
+    <t xml:space="preserve">Path to file, relative to the intake bucket.</t>
   </si>
   <si>
-    <t xml:space="preserve">Section 'Runs' of tab 'olink'</t>
+    <t xml:space="preserve">Section 'Runs' of tab 'nanostring'</t>
   </si>
   <si>
     <t xml:space="preserve">A unique ID that separates the different runs of the given same sample.</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t xml:space="preserve">MD Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad</t>
   </si>
 </sst>
 </file>
@@ -601,11 +607,11 @@
   </sheetPr>
   <dimension ref="A1:C2009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="B6:D8 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10735,11 +10741,11 @@
   </sheetPr>
   <dimension ref="A1:D2005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10811,7 +10817,7 @@
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -20840,10 +20846,10 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B6:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -21028,13 +21034,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:B5"/>
+  <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B6:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -21062,6 +21068,16 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
